--- a/лабы.xlsx
+++ b/лабы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Университет\3 курс\6 сем\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222E216D-5B79-4212-B539-2669968463FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC9D2AF-E77F-4784-BD62-358E3925E1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,8 +619,8 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -742,8 +742,8 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -776,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="AI7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
@@ -868,7 +868,7 @@
       </c>
       <c r="AI10" s="2">
         <f>SUM(AI2:AI9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/лабы.xlsx
+++ b/лабы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Университет\3 курс\6 сем\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC9D2AF-E77F-4784-BD62-358E3925E1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE01A6A8-3AF7-4681-B2F1-D45D8E649AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9408" yWindow="0" windowWidth="13632" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>

--- a/лабы.xlsx
+++ b/лабы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Университет\3 курс\6 сем\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE01A6A8-3AF7-4681-B2F1-D45D8E649AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECE5EA0-F1BD-4633-93E0-DE7522E71224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9408" yWindow="0" windowWidth="13632" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -824,7 +824,7 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
